--- a/download/prijzen VOP.xlsx
+++ b/download/prijzen VOP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kasomk-my.sharepoint.com/personal/crre071105_leerling_mosa-rt_be/Documents/Schooljaar 2022-2023/Watervoedingsysteem/website_Watervoedingsysteem/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{3E1EE01B-E1D1-4001-89FD-6AD0ED1A918C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B81AEC2-C300-481E-A2D2-602FEB08212F}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{3E1EE01B-E1D1-4001-89FD-6AD0ED1A918C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DF4979B-9793-444F-AAB7-439ACA04C725}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{FE62BCB1-C5A1-4FD9-8831-9762652F7E9A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FE62BCB1-C5A1-4FD9-8831-9762652F7E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Grondvochtigheid sensor</t>
   </si>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>5 liter watertank</t>
+  </si>
+  <si>
+    <t>totaal</t>
+  </si>
+  <si>
+    <t>insteekkoppeling</t>
+  </si>
+  <si>
+    <t>https://nl.rubix.com/nl/l-insteekkoppeling/p-G1116015721</t>
+  </si>
+  <si>
+    <t>waterslang 1m</t>
+  </si>
+  <si>
+    <t>https://www.k-parts.nl/benzineslang-mezoly-transparant-1-meter.html?utm_medium=organic&amp;utm_source=google_shopping&amp;gclid=Cj0KCQjwj_ajBhCqARIsAA37s0x-GMkaC8jo78DvXYhzN-kBuYTdfuQt3La5oDpOwueHYJolh-wg-EUaAiC3EALw_wcB</t>
   </si>
 </sst>
 </file>
@@ -469,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C07C2D4-1C87-406B-ADDB-FC830AE443F1}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,6 +508,9 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -507,6 +525,10 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>5.29</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -521,6 +543,10 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
+        <v>98.37</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -535,6 +561,10 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>8.6300000000000008</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -549,6 +579,10 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>7.95</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -563,6 +597,10 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>23.95</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -577,7 +615,10 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0900000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -592,6 +633,10 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7899999999999991</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -606,25 +651,59 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C10" s="3"/>
-      <c r="E10" s="2"/>
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>11.040000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C11" s="3"/>
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.66</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
-        <f>SUM(C2:C9)</f>
-        <v>156.32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C13" s="3"/>
+      <c r="E13" s="3">
+        <f>SUM(E2:E11)</f>
+        <v>171.01999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C14" s="3"/>
@@ -654,8 +733,10 @@
     <hyperlink ref="B8" r:id="rId6" display="https://www.bol.com/be/nl/p/azdelivery-hd44780-2004-lcd-display-bundel-4x20-tekens-met-i2c-interface-compatibel-met-arduino-inclusief-e-book-1/9300000119725863/?Referrer=ADVNLGOO002013-S--9300000119725863&amp;gclid=CjwKCAjwpuajBhBpEiwA_ZtfhT1e6EiPoynFxggMxcxtXHhhxPFfPX57n_QYL7OdyyQUaKqCvBrPhBoC-V0QAvD_BwE" xr:uid="{881F538D-823D-4AE6-A1FA-F1414A04341C}"/>
     <hyperlink ref="B9" r:id="rId7" display="https://www.benselectronics.nl/max485-ttl-rs485.html?source=googlebase&amp;gclid=CjwKCAjwpuajBhBpEiwA_ZtfhThHqtTQ2bjLW7JoxDspXWZNT77cL2I3SVPn_simVvU26K_7wLwDWhoCiAgQAvD_BwE" xr:uid="{9FB72042-FA87-4C48-81A4-A4BA950D336F}"/>
     <hyperlink ref="B5" r:id="rId8" xr:uid="{7BA69895-7C5A-4642-BB69-9558AEF6272D}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{C642A3A1-4E46-47A4-8AB3-51B0AC81C35E}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{DE89B313-FA0A-47AE-ABA4-9C9CC651F88B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>